--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_17-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_17-26.xlsx
@@ -41,12 +41,18 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>ALPHAVIM 300 - 20 CAPS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -126,9 +132,6 @@
   </si>
   <si>
     <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
   </si>
   <si>
     <t>LEVANIC 500MG 7 F.C. TAB.</t>
@@ -897,11 +900,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -909,7 +912,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -917,13 +920,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>30.5</v>
+        <v>24</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -935,7 +938,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -943,17 +946,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>-33</v>
+        <v>30.5</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -975,11 +978,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>31</v>
+        <v>-33</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -995,13 +998,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1013,7 +1016,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1021,17 +1024,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1039,7 +1042,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1047,17 +1050,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1079,11 +1082,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1099,13 +1102,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1117,7 +1120,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1125,13 +1128,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1143,7 +1146,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1151,13 +1154,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1169,7 +1172,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1177,17 +1180,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1195,7 +1198,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1203,17 +1206,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1221,7 +1224,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1229,13 +1232,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1261,7 +1264,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1287,11 +1290,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1313,11 +1316,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1333,17 +1336,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1359,17 +1362,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1385,13 +1388,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1411,17 +1414,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>-72.5</v>
+        <v>38</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1437,17 +1440,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>350</v>
+        <v>-72.5</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1469,7 +1472,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>36.5</v>
+        <v>350</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1489,13 +1492,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1515,17 +1518,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1541,17 +1544,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1559,7 +1562,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1567,17 +1570,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1593,17 +1596,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1611,7 +1614,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1619,17 +1622,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1645,17 +1648,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1671,17 +1674,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1697,13 +1700,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>28.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1715,7 +1718,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1723,13 +1726,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>23</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1741,7 +1744,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1749,17 +1752,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1775,13 +1778,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1807,11 +1810,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1827,17 +1830,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1845,7 +1848,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1853,17 +1856,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1871,7 +1874,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1879,17 +1882,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1897,7 +1900,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1905,7 +1908,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -1923,7 +1926,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1931,13 +1934,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1957,13 +1960,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1975,7 +1978,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1983,17 +1986,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2001,7 +2004,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2009,17 +2012,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>12</v>
+        <v>11.67</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2027,7 +2030,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2035,17 +2038,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2061,7 +2064,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -2071,7 +2074,7 @@
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2079,7 +2082,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2087,17 +2090,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2113,17 +2116,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2139,13 +2142,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2157,7 +2160,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2165,13 +2168,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2191,13 +2194,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2217,7 +2220,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -2243,51 +2246,77 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
-      <c r="K58" s="10">
-        <v>2507.02</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-    </row>
-    <row r="59" ht="17.25" customHeight="1">
-      <c t="s" r="A59" s="11">
+      <c r="A58" s="6">
+        <v>55</v>
+      </c>
+      <c t="s" r="B58" s="7">
         <v>88</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c t="s" r="F59" s="12">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c t="s" r="H58" s="8">
+        <v>26</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9">
+        <v>80</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c t="s" r="N58" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="K59" s="10">
+        <v>2587.02</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="11">
         <v>89</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
-      <c t="s" r="I59" s="14">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c t="s" r="F60" s="12">
         <v>90</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+      <c t="s" r="I60" s="14">
+        <v>91</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="173">
+  <mergeCells count="176">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2457,10 +2486,13 @@
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:N60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
